--- a/src/assets/neQueryTemplate.xlsx
+++ b/src/assets/neQueryTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">domain</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">geographyl3id_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isvirtual</t>
   </si>
 </sst>
 </file>
@@ -73,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,8 +103,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -193,13 +197,13 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -224,19 +228,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="A1:M1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,6 +282,9 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
